--- a/outputs-HGR-r202/test-g__Blautia_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Blautia_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>Row</t>
   </si>
@@ -91,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -101,14 +101,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,141 +143,141 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0023160708522326394</v>
+        <v>0.00069244415390396386</v>
       </c>
       <c r="C2">
-        <v>0.041156009264879674</v>
+        <v>0.013322452152775832</v>
       </c>
       <c r="D2">
-        <v>0.0021271581563372492</v>
+        <v>0.0015177712250696465</v>
       </c>
       <c r="E2">
-        <v>0.0013378807925177184</v>
+        <v>0.0014963223543172691</v>
       </c>
       <c r="F2">
-        <v>0.0047022078744212419</v>
+        <v>0.0028371801654021524</v>
       </c>
       <c r="G2">
-        <v>8.02392110663351e-07</v>
+        <v>7.2874503082882655e-06</v>
       </c>
       <c r="H2">
-        <v>0.02175604630906432</v>
+        <v>0.01598486329101214</v>
       </c>
       <c r="I2">
-        <v>0.0017655248749816202</v>
+        <v>0.00086657738489037098</v>
       </c>
       <c r="J2">
-        <v>1.3650020451911975e-05</v>
+        <v>5.2419868273375898e-06</v>
       </c>
       <c r="K2">
-        <v>0.037915879806129385</v>
+        <v>0.025513756525503809</v>
       </c>
       <c r="L2">
-        <v>0.0018148827288109938</v>
+        <v>0.0011658677918423091</v>
       </c>
       <c r="M2">
-        <v>0.0030086204238150478</v>
+        <v>0.0041096813377496698</v>
       </c>
       <c r="N2">
-        <v>0.88208526650424757</v>
+        <v>0.9324805541803971</v>
       </c>
       <c r="O2">
         <v>13</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>0.0002441152822768986</v>
+        <v>0.00030193399374063031</v>
       </c>
       <c r="C3">
-        <v>0.0066457054923231259</v>
+        <v>0.012448495689447175</v>
       </c>
       <c r="D3">
-        <v>0.0030481219371836493</v>
+        <v>0.0016872481252974139</v>
       </c>
       <c r="E3">
-        <v>0.000749763562552558</v>
+        <v>0.0081254188169070218</v>
       </c>
       <c r="F3">
-        <v>0.011247084477781841</v>
+        <v>0.0018781484912509946</v>
       </c>
       <c r="G3">
-        <v>1.9782114089003237e-05</v>
+        <v>2.6054545485844901e-05</v>
       </c>
       <c r="H3">
-        <v>0.019313245513725142</v>
+        <v>0.0088271138219331163</v>
       </c>
       <c r="I3">
-        <v>0.0083991691345159675</v>
+        <v>0.0028079918694354847</v>
       </c>
       <c r="J3">
-        <v>5.0953699663601398e-06</v>
+        <v>3.481436921916412e-06</v>
       </c>
       <c r="K3">
-        <v>0.0057630185072155603</v>
+        <v>0.0096690555102085414</v>
       </c>
       <c r="L3">
-        <v>0.00090552256553392001</v>
+        <v>0.0016207769048397626</v>
       </c>
       <c r="M3">
-        <v>0.045806690312393844</v>
+        <v>0.019753808950823088</v>
       </c>
       <c r="N3">
-        <v>0.89785268573044208</v>
+        <v>0.93285047184370906</v>
       </c>
       <c r="O3">
         <v>13</v>
